--- a/dev/enemies.xlsx
+++ b/dev/enemies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DAA1993F-97B9-426E-8C4F-C2AE5C643DF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6EB1E728-87C7-4970-B838-611AF73B824E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="244">
   <si>
     <t>Id</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>Extended enemy attributes, used for battle event based skills</t>
+  </si>
+  <si>
+    <t>Cigarette</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
   <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,8 +1181,11 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1329,7 +1335,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>243</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.6</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>

--- a/dev/enemies.xlsx
+++ b/dev/enemies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6EB1E728-87C7-4970-B838-611AF73B824E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF6FF4B1-F14A-4B76-BF4E-06DD19C91CC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="244">
   <si>
     <t>Id</t>
   </si>
@@ -709,9 +709,6 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Strength Pill</t>
-  </si>
-  <si>
     <t>Pike</t>
   </si>
   <si>
@@ -752,6 +749,9 @@
   </si>
   <si>
     <t>Cigarette</t>
+  </si>
+  <si>
+    <t>Hash Joint</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1096,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
         <v>236</v>
       </c>
-      <c r="D3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>237</v>
       </c>
-      <c r="F3" t="s">
-        <v>238</v>
-      </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1205,11 +1205,14 @@
       <c r="C8" t="s">
         <v>168</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.4</v>
+      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1227,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1245,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1260,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1278,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1293,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1308,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1323,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1335,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" s="1">
         <v>0.6</v>
@@ -1344,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1359,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1380,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1391,11 +1394,17 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1409,11 +1418,14 @@
       <c r="C20" t="s">
         <v>173</v>
       </c>
+      <c r="D20" s="1">
+        <v>0.2</v>
+      </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1431,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1449,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1467,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1488,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1500,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" s="1">
         <v>0.5</v>
@@ -1509,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1530,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1551,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1587,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1602,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1617,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1632,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1650,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1668,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1682,11 +1694,14 @@
       <c r="C35" t="s">
         <v>178</v>
       </c>
+      <c r="D35" s="1">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1700,11 +1715,14 @@
       <c r="C36" t="s">
         <v>179</v>
       </c>
+      <c r="D36" s="1">
+        <v>0.5</v>
+      </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1719,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1737,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1755,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1767,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40" s="1">
         <v>0.3</v>
@@ -1776,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1794,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1806,7 +1824,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D42" s="1">
         <v>0.3</v>
@@ -1815,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1829,11 +1847,14 @@
       <c r="C43" t="s">
         <v>171</v>
       </c>
+      <c r="D43" s="1">
+        <v>0.8</v>
+      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1854,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1872,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1893,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1911,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1932,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1953,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1974,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1992,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2010,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2028,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2046,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2064,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2082,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2100,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2118,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2139,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2157,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2172,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2193,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2214,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2229,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2250,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2271,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2289,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2307,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2322,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2343,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2361,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -2382,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2400,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -2418,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2439,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2460,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -2475,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2496,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2514,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2532,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2550,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2568,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2586,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2604,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2622,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2640,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2658,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2676,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -2694,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -2712,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2730,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -2748,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2769,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -2787,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -2805,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -2823,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -2844,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -2859,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2874,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -2895,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -2913,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -2925,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2946,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -2964,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -2982,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -3000,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -3021,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -3039,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -3057,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -3075,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -3096,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -3117,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -3138,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -3156,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -3170,11 +3191,14 @@
       <c r="C115" t="s">
         <v>167</v>
       </c>
+      <c r="D115" s="1">
+        <v>0.8</v>
+      </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -3192,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -3210,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -3224,11 +3248,14 @@
       <c r="C118" t="s">
         <v>171</v>
       </c>
+      <c r="D118" s="1">
+        <v>0.8</v>
+      </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -3246,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -3264,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -3282,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -3303,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -3321,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -3342,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -3360,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -3378,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -3399,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -3417,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -3435,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -3453,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -3471,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -3489,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -3501,7 +3528,7 @@
         <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D133" s="1">
         <v>0.8</v>
@@ -3510,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -3531,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -3552,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -3573,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -3591,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -3612,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -3630,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -3648,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -3666,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -3687,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -3705,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -3723,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -3741,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -3759,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -3777,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -3795,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -3813,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -3831,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -3849,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -3867,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -3885,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -3903,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -3921,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -3939,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -3957,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -3969,7 +3996,7 @@
         <v>154</v>
       </c>
       <c r="C158" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D158" s="1">
         <v>0.75</v>
@@ -3978,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -3996,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -4014,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -4032,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -4050,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -4071,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -4089,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -4107,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -4125,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -4143,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -4155,13 +4182,16 @@
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>243</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -4176,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
